--- a/saft_out_24_novo.xlsx
+++ b/saft_out_24_novo.xlsx
@@ -12,7 +12,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="280">
+  <si>
+    <t>InvoiceNo</t>
+  </si>
+  <si>
+    <t>InvoiceDate</t>
+  </si>
+  <si>
+    <t>InvoiceStatus</t>
+  </si>
+  <si>
+    <t>InvoiceType</t>
+  </si>
+  <si>
+    <t>SystemEntryDate</t>
+  </si>
+  <si>
+    <t>NetTotal</t>
+  </si>
+  <si>
+    <t>TaxPayable</t>
+  </si>
+  <si>
+    <t>GrossTotal</t>
+  </si>
   <si>
     <t>FT DELITESEGURANAPRI/976</t>
   </si>
@@ -29,9 +53,6 @@
     <t>2024-10-02T11:31:24</t>
   </si>
   <si>
-    <t>5044.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/979</t>
   </si>
   <si>
@@ -41,18 +62,12 @@
     <t>2024-10-06T22:27:34</t>
   </si>
   <si>
-    <t>350.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/980</t>
   </si>
   <si>
     <t>2024-10-06T22:29:52</t>
   </si>
   <si>
-    <t>784.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1045</t>
   </si>
   <si>
@@ -62,63 +77,42 @@
     <t>2024-10-22T18:53:15</t>
   </si>
   <si>
-    <t>378.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1046</t>
   </si>
   <si>
     <t>2024-10-22T18:54:18</t>
   </si>
   <si>
-    <t>896.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1047</t>
   </si>
   <si>
     <t>2024-10-22T18:55:18</t>
   </si>
   <si>
-    <t>833.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1048</t>
   </si>
   <si>
     <t>2024-10-22T18:56:17</t>
   </si>
   <si>
-    <t>448.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1049</t>
   </si>
   <si>
     <t>2024-10-22T18:57:54</t>
   </si>
   <si>
-    <t>560.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1050</t>
   </si>
   <si>
     <t>2024-10-22T18:59:08</t>
   </si>
   <si>
-    <t>420.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1051</t>
   </si>
   <si>
     <t>2024-10-22T19:00:45</t>
   </si>
   <si>
-    <t>392.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1082</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>2024-10-31T15:11:10</t>
   </si>
   <si>
-    <t>3206.25</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/977</t>
   </si>
   <si>
@@ -146,27 +137,18 @@
     <t>2024-10-06T22:51:39</t>
   </si>
   <si>
-    <t>1498.5</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/985</t>
   </si>
   <si>
     <t>2024-10-06T23:11:32</t>
   </si>
   <si>
-    <t>200.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/987</t>
   </si>
   <si>
     <t>2024-10-06T23:13:08</t>
   </si>
   <si>
-    <t>243.9</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/988</t>
   </si>
   <si>
@@ -179,18 +161,12 @@
     <t>2024-10-06T23:16:01</t>
   </si>
   <si>
-    <t>276.42</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/990</t>
   </si>
   <si>
     <t>2024-10-06T23:34:59</t>
   </si>
   <si>
-    <t>400.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1001</t>
   </si>
   <si>
@@ -200,18 +176,12 @@
     <t>2024-10-07T15:41:06</t>
   </si>
   <si>
-    <t>136.5</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1002</t>
   </si>
   <si>
     <t>2024-10-07T15:53:42</t>
   </si>
   <si>
-    <t>671.25</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1008</t>
   </si>
   <si>
@@ -224,9 +194,6 @@
     <t>2024-10-07T18:27:19</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1010</t>
   </si>
   <si>
@@ -254,9 +221,6 @@
     <t>2024-10-14T11:44:31</t>
   </si>
   <si>
-    <t>224.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1022</t>
   </si>
   <si>
@@ -266,36 +230,24 @@
     <t>2024-10-15T09:40:00</t>
   </si>
   <si>
-    <t>240.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1026</t>
   </si>
   <si>
     <t>2024-10-15T10:06:14</t>
   </si>
   <si>
-    <t>110.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1027</t>
   </si>
   <si>
     <t>2024-10-15T11:25:22</t>
   </si>
   <si>
-    <t>336.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1028</t>
   </si>
   <si>
     <t>2024-10-15T11:27:46</t>
   </si>
   <si>
-    <t>98.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1042</t>
   </si>
   <si>
@@ -305,18 +257,12 @@
     <t>2024-10-21T14:42:59</t>
   </si>
   <si>
-    <t>514.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1044</t>
   </si>
   <si>
     <t>2024-10-21T15:00:47</t>
   </si>
   <si>
-    <t>234.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1064</t>
   </si>
   <si>
@@ -326,45 +272,30 @@
     <t>2024-10-28T16:58:34</t>
   </si>
   <si>
-    <t>5200.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1066</t>
   </si>
   <si>
     <t>2024-10-28T17:12:53</t>
   </si>
   <si>
-    <t>112.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1067</t>
   </si>
   <si>
     <t>2024-10-28T17:18:38</t>
   </si>
   <si>
-    <t>313.25</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1069</t>
   </si>
   <si>
     <t>2024-10-28T17:21:51</t>
   </si>
   <si>
-    <t>117.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1070</t>
   </si>
   <si>
     <t>2024-10-28T17:47:16</t>
   </si>
   <si>
-    <t>322.5</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1071</t>
   </si>
   <si>
@@ -383,90 +314,60 @@
     <t>2024-10-01T11:10:20</t>
   </si>
   <si>
-    <t>2541.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/966</t>
   </si>
   <si>
     <t>2024-10-01T11:12:12</t>
   </si>
   <si>
-    <t>7920.67</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/967</t>
   </si>
   <si>
     <t>2024-10-01T11:14:13</t>
   </si>
   <si>
-    <t>1298.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/968</t>
   </si>
   <si>
     <t>2024-10-01T11:15:42</t>
   </si>
   <si>
-    <t>2835.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/969</t>
   </si>
   <si>
     <t>2024-10-01T11:19:06</t>
   </si>
   <si>
-    <t>3022.5</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/970</t>
   </si>
   <si>
     <t>2024-10-01T11:22:43</t>
   </si>
   <si>
-    <t>648.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/971</t>
   </si>
   <si>
     <t>2024-10-01T11:24:16</t>
   </si>
   <si>
-    <t>642.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/972</t>
   </si>
   <si>
     <t>2024-10-01T12:26:54</t>
   </si>
   <si>
-    <t>1926.75</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/973</t>
   </si>
   <si>
     <t>2024-10-01T12:54:44</t>
   </si>
   <si>
-    <t>472.8</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/974</t>
   </si>
   <si>
     <t>2024-10-01T14:44:23</t>
   </si>
   <si>
-    <t>4379.375</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/975</t>
   </si>
   <si>
@@ -482,18 +383,12 @@
     <t>2024-10-03T14:26:24</t>
   </si>
   <si>
-    <t>2958.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/982</t>
   </si>
   <si>
     <t>2024-10-06T23:07:53</t>
   </si>
   <si>
-    <t>150.4066</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/983</t>
   </si>
   <si>
@@ -506,18 +401,12 @@
     <t>2024-10-06T23:10:45</t>
   </si>
   <si>
-    <t>180.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/986</t>
   </si>
   <si>
     <t>2024-10-06T23:12:17</t>
   </si>
   <si>
-    <t>550.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/991</t>
   </si>
   <si>
@@ -530,9 +419,6 @@
     <t>2024-10-06T23:36:31</t>
   </si>
   <si>
-    <t>300.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/993</t>
   </si>
   <si>
@@ -545,45 +431,30 @@
     <t>2024-10-06T23:37:55</t>
   </si>
   <si>
-    <t>50.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/995</t>
   </si>
   <si>
     <t>2024-10-07T13:49:34</t>
   </si>
   <si>
-    <t>6226.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/996</t>
   </si>
   <si>
     <t>2024-10-07T13:53:41</t>
   </si>
   <si>
-    <t>1315.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/997</t>
   </si>
   <si>
     <t>2024-10-07T13:55:33</t>
   </si>
   <si>
-    <t>615.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/998</t>
   </si>
   <si>
     <t>2024-10-07T13:59:46</t>
   </si>
   <si>
-    <t>858.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/999</t>
   </si>
   <si>
@@ -602,45 +473,30 @@
     <t>2024-10-07T16:21:48</t>
   </si>
   <si>
-    <t>3060.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1004</t>
   </si>
   <si>
     <t>2024-10-07T16:53:52</t>
   </si>
   <si>
-    <t>1680.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1005</t>
   </si>
   <si>
     <t>2024-10-07T17:13:50</t>
   </si>
   <si>
-    <t>600.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1006</t>
   </si>
   <si>
     <t>2024-10-07T17:19:05</t>
   </si>
   <si>
-    <t>288.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1007</t>
   </si>
   <si>
     <t>2024-10-07T17:21:01</t>
   </si>
   <si>
-    <t>96.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1013</t>
   </si>
   <si>
@@ -653,18 +509,12 @@
     <t>2024-10-07T18:45:28</t>
   </si>
   <si>
-    <t>250.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1015</t>
   </si>
   <si>
     <t>2024-10-07T18:46:38</t>
   </si>
   <si>
-    <t>450.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1016</t>
   </si>
   <si>
@@ -683,63 +533,42 @@
     <t>2024-10-07T18:48:46</t>
   </si>
   <si>
-    <t>500.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1020</t>
   </si>
   <si>
     <t>2024-10-14T12:27:31</t>
   </si>
   <si>
-    <t>80.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1021</t>
   </si>
   <si>
     <t>2024-10-14T13:31:40</t>
   </si>
   <si>
-    <t>262.5</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1023</t>
   </si>
   <si>
     <t>2024-10-15T09:46:56</t>
   </si>
   <si>
-    <t>1506.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1024</t>
   </si>
   <si>
     <t>2024-10-15T09:54:55</t>
   </si>
   <si>
-    <t>4000.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1025</t>
   </si>
   <si>
     <t>2024-10-15T10:00:50</t>
   </si>
   <si>
-    <t>1170.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1029</t>
   </si>
   <si>
     <t>2024-10-15T11:42:46</t>
   </si>
   <si>
-    <t>135.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1030</t>
   </si>
   <si>
@@ -752,9 +581,6 @@
     <t>2024-10-15T11:53:00</t>
   </si>
   <si>
-    <t>209.25</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1032</t>
   </si>
   <si>
@@ -770,9 +596,6 @@
     <t>2024-10-16T14:06:50</t>
   </si>
   <si>
-    <t>1324.8</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1034</t>
   </si>
   <si>
@@ -782,45 +605,30 @@
     <t>2024-10-17T21:03:34</t>
   </si>
   <si>
-    <t>3545.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1035</t>
   </si>
   <si>
     <t>2024-10-17T21:11:54</t>
   </si>
   <si>
-    <t>3841.25</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1036</t>
   </si>
   <si>
     <t>2024-10-21T10:41:41</t>
   </si>
   <si>
-    <t>201.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1037</t>
   </si>
   <si>
     <t>2024-10-21T11:56:06</t>
   </si>
   <si>
-    <t>1520.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1038</t>
   </si>
   <si>
     <t>2024-10-21T12:00:44</t>
   </si>
   <si>
-    <t>255.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1039</t>
   </si>
   <si>
@@ -839,18 +647,12 @@
     <t>2024-10-21T14:39:32</t>
   </si>
   <si>
-    <t>112.5</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1043</t>
   </si>
   <si>
     <t>2024-10-21T14:45:38</t>
   </si>
   <si>
-    <t>84.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1052</t>
   </si>
   <si>
@@ -899,36 +701,24 @@
     <t>2024-10-28T12:10:18</t>
   </si>
   <si>
-    <t>11177.63</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1060</t>
   </si>
   <si>
     <t>2024-10-28T12:13:40</t>
   </si>
   <si>
-    <t>10136.74</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1061</t>
   </si>
   <si>
     <t>2024-10-28T16:12:39</t>
   </si>
   <si>
-    <t>1607.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1062</t>
   </si>
   <si>
     <t>2024-10-28T16:44:52</t>
   </si>
   <si>
-    <t>252.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1063</t>
   </si>
   <si>
@@ -941,9 +731,6 @@
     <t>2024-10-28T17:06:54</t>
   </si>
   <si>
-    <t>75.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1068</t>
   </si>
   <si>
@@ -956,9 +743,6 @@
     <t>2024-10-30T10:05:54</t>
   </si>
   <si>
-    <t>126.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1073</t>
   </si>
   <si>
@@ -971,9 +755,6 @@
     <t>2024-10-30T10:15:07</t>
   </si>
   <si>
-    <t>87.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1075</t>
   </si>
   <si>
@@ -1010,54 +791,36 @@
     <t>2024-10-30T14:45:59</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1081</t>
   </si>
   <si>
     <t>2024-10-30T15:16:46</t>
   </si>
   <si>
-    <t>719.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1083</t>
   </si>
   <si>
     <t>2024-11-05T10:00:04</t>
   </si>
   <si>
-    <t>3376.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1084</t>
   </si>
   <si>
     <t>2024-11-05T10:24:41</t>
   </si>
   <si>
-    <t>314.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1085</t>
   </si>
   <si>
     <t>2024-11-05T10:26:48</t>
   </si>
   <si>
-    <t>785.0</t>
-  </si>
-  <si>
     <t>FT DELITESEGURANAPRI/1086</t>
   </si>
   <si>
     <t>2024-11-05T10:29:49</t>
   </si>
   <si>
-    <t>534.0</t>
-  </si>
-  <si>
     <t>NC DELITESEGURANAPRI/18</t>
   </si>
   <si>
@@ -1065,9 +828,6 @@
   </si>
   <si>
     <t>2024-10-06T20:45:27</t>
-  </si>
-  <si>
-    <t>710.0</t>
   </si>
   <si>
     <t>NC DELITESEGURANAPRI/19</t>
@@ -1136,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1161,105 +921,141 @@
       <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5044.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>1160.12</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>6204.12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>2</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>80.5</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>430.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>180.32</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>964.3199999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>86.94</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>464.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s" s="0">
         <v>22</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>896.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>206.08</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>1102.08</v>
       </c>
     </row>
     <row r="7">
@@ -1267,2419 +1063,3171 @@
         <v>23</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>25</v>
+      <c r="F7" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>191.59</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>1024.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>28</v>
+      <c r="F8" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>103.04</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>551.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>560.0</v>
+      </c>
+      <c r="G9" t="n" s="0">
+        <v>128.8</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>688.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>96.6</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>516.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>90.16</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>482.15999999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>3206.25</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>737.4375</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>3943.6875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="F13" t="n" s="0">
+        <v>5044.0</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1160.12</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>6204.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>47</v>
+      <c r="F14" t="n" s="0">
+        <v>1498.5</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>344.655</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1843.155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>246.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>243.9</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>56.097</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>299.997</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>246.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>276.42</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>63.5766</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>339.9966</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>492.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s" s="0">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>136.5</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>31.395</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>167.895</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>671.25</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>154.3875</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>825.6375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>70</v>
+        <v>57</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>246.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="F23" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>123.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>47</v>
+        <v>61</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>246.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>246.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>80</v>
+        <v>65</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="H26" t="n" s="0">
+        <v>246.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>84</v>
+        <v>68</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>51.52</v>
+      </c>
+      <c r="H27" t="n" s="0">
+        <v>275.52</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>87</v>
+        <v>71</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>55.2</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>295.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>110.0</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>25.3</v>
+      </c>
+      <c r="H29" t="n" s="0">
+        <v>135.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="G30" t="n" s="0">
+        <v>77.28</v>
+      </c>
+      <c r="H30" t="n" s="0">
+        <v>413.28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>22.54</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>120.53999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>118.22</v>
+      </c>
+      <c r="H32" t="n" s="0">
+        <v>632.22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>104</v>
+        <v>82</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>53.82</v>
+      </c>
+      <c r="H33" t="n" s="0">
+        <v>287.82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>5200.0</v>
+      </c>
+      <c r="G34" t="n" s="0">
+        <v>1196.0</v>
+      </c>
+      <c r="H34" t="n" s="0">
+        <v>6396.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>110</v>
+        <v>87</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="G35" t="n" s="0">
+        <v>25.76</v>
+      </c>
+      <c r="H35" t="n" s="0">
+        <v>137.76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>113</v>
+        <v>89</v>
+      </c>
+      <c r="F36" t="n" s="0">
+        <v>313.25</v>
+      </c>
+      <c r="G36" t="n" s="0">
+        <v>72.0475</v>
+      </c>
+      <c r="H36" t="n" s="0">
+        <v>385.2975</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>116</v>
+        <v>91</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>26.91</v>
+      </c>
+      <c r="H37" t="n" s="0">
+        <v>143.91</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>107</v>
+        <v>93</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>322.5</v>
+      </c>
+      <c r="G38" t="n" s="0">
+        <v>74.175</v>
+      </c>
+      <c r="H38" t="n" s="0">
+        <v>396.675</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>123</v>
+        <v>96</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>112.0</v>
+      </c>
+      <c r="G39" t="n" s="0">
+        <v>25.76</v>
+      </c>
+      <c r="H39" t="n" s="0">
+        <v>137.76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>126</v>
+        <v>99</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>2541.0</v>
+      </c>
+      <c r="G40" t="n" s="0">
+        <v>584.43</v>
+      </c>
+      <c r="H40" t="n" s="0">
+        <v>3125.43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>129</v>
+        <v>101</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>7920.67</v>
+      </c>
+      <c r="G41" t="n" s="0">
+        <v>1821.7541</v>
+      </c>
+      <c r="H41" t="n" s="0">
+        <v>9742.4241</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="F42" t="s" s="0">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>1298.0</v>
+      </c>
+      <c r="G42" t="n" s="0">
+        <v>298.54</v>
+      </c>
+      <c r="H42" t="n" s="0">
+        <v>1596.54</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>134</v>
-      </c>
-      <c r="F43" t="s" s="0">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>2835.0</v>
+      </c>
+      <c r="G43" t="n" s="0">
+        <v>652.05</v>
+      </c>
+      <c r="H43" t="n" s="0">
+        <v>3487.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>138</v>
+        <v>107</v>
+      </c>
+      <c r="F44" t="n" s="0">
+        <v>3022.5</v>
+      </c>
+      <c r="G44" t="n" s="0">
+        <v>695.175</v>
+      </c>
+      <c r="H44" t="n" s="0">
+        <v>3717.675</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>140</v>
-      </c>
-      <c r="F45" t="s" s="0">
-        <v>141</v>
+        <v>109</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="G45" t="n" s="0">
+        <v>149.04</v>
+      </c>
+      <c r="H45" t="n" s="0">
+        <v>797.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>143</v>
-      </c>
-      <c r="F46" t="s" s="0">
-        <v>144</v>
+        <v>111</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>642.0</v>
+      </c>
+      <c r="G46" t="n" s="0">
+        <v>147.66</v>
+      </c>
+      <c r="H46" t="n" s="0">
+        <v>789.66</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="F47" t="s" s="0">
-        <v>147</v>
+        <v>113</v>
+      </c>
+      <c r="F47" t="n" s="0">
+        <v>1926.75</v>
+      </c>
+      <c r="G47" t="n" s="0">
+        <v>443.1525</v>
+      </c>
+      <c r="H47" t="n" s="0">
+        <v>2369.9025</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="F48" t="s" s="0">
-        <v>150</v>
+        <v>115</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>472.8</v>
+      </c>
+      <c r="G48" t="n" s="0">
+        <v>108.744</v>
+      </c>
+      <c r="H48" t="n" s="0">
+        <v>581.544</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>152</v>
-      </c>
-      <c r="F49" t="s" s="0">
-        <v>84</v>
+        <v>117</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>4379.375</v>
+      </c>
+      <c r="G49" t="n" s="0">
+        <v>1007.2563</v>
+      </c>
+      <c r="H49" t="n" s="0">
+        <v>5386.6313</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="F50" t="s" s="0">
-        <v>156</v>
+        <v>119</v>
+      </c>
+      <c r="F50" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="G50" t="n" s="0">
+        <v>55.2</v>
+      </c>
+      <c r="H50" t="n" s="0">
+        <v>295.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="F51" t="s" s="0">
-        <v>159</v>
+        <v>122</v>
+      </c>
+      <c r="F51" t="n" s="0">
+        <v>2958.0</v>
+      </c>
+      <c r="G51" t="n" s="0">
+        <v>680.34</v>
+      </c>
+      <c r="H51" t="n" s="0">
+        <v>3638.34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>161</v>
-      </c>
-      <c r="F52" t="s" s="0">
-        <v>84</v>
+        <v>124</v>
+      </c>
+      <c r="F52" t="n" s="0">
+        <v>150.4066</v>
+      </c>
+      <c r="G52" t="n" s="0">
+        <v>34.5935</v>
+      </c>
+      <c r="H52" t="n" s="0">
+        <v>185.0001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="F53" t="s" s="0">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="F53" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="G53" t="n" s="0">
+        <v>55.2</v>
+      </c>
+      <c r="H53" t="n" s="0">
+        <v>295.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>166</v>
-      </c>
-      <c r="F54" t="s" s="0">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="F54" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="G54" t="n" s="0">
+        <v>41.4</v>
+      </c>
+      <c r="H54" t="n" s="0">
+        <v>221.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>169</v>
-      </c>
-      <c r="F55" t="s" s="0">
-        <v>70</v>
+        <v>130</v>
+      </c>
+      <c r="F55" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="G55" t="n" s="0">
+        <v>126.5</v>
+      </c>
+      <c r="H55" t="n" s="0">
+        <v>676.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="F56" t="s" s="0">
-        <v>172</v>
+        <v>132</v>
+      </c>
+      <c r="F56" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="G56" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H56" t="n" s="0">
+        <v>123.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>174</v>
-      </c>
-      <c r="F57" t="s" s="0">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="G57" t="n" s="0">
+        <v>69.0</v>
+      </c>
+      <c r="H57" t="n" s="0">
+        <v>369.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>176</v>
-      </c>
-      <c r="F58" t="s" s="0">
-        <v>177</v>
+        <v>136</v>
+      </c>
+      <c r="F58" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="G58" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="H58" t="n" s="0">
+        <v>123.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="F59" t="s" s="0">
-        <v>180</v>
+        <v>138</v>
+      </c>
+      <c r="F59" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="G59" t="n" s="0">
+        <v>11.5</v>
+      </c>
+      <c r="H59" t="n" s="0">
+        <v>61.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>183</v>
+        <v>140</v>
+      </c>
+      <c r="F60" t="n" s="0">
+        <v>6226.0</v>
+      </c>
+      <c r="G60" t="n" s="0">
+        <v>1431.98</v>
+      </c>
+      <c r="H60" t="n" s="0">
+        <v>7657.98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="F61" t="s" s="0">
-        <v>186</v>
+        <v>142</v>
+      </c>
+      <c r="F61" t="n" s="0">
+        <v>1315.0</v>
+      </c>
+      <c r="G61" t="n" s="0">
+        <v>302.45</v>
+      </c>
+      <c r="H61" t="n" s="0">
+        <v>1617.45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="F62" t="s" s="0">
-        <v>189</v>
+        <v>144</v>
+      </c>
+      <c r="F62" t="n" s="0">
+        <v>615.0</v>
+      </c>
+      <c r="G62" t="n" s="0">
+        <v>141.45</v>
+      </c>
+      <c r="H62" t="n" s="0">
+        <v>756.45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>191</v>
-      </c>
-      <c r="F63" t="s" s="0">
-        <v>12</v>
+        <v>146</v>
+      </c>
+      <c r="F63" t="n" s="0">
+        <v>858.0</v>
+      </c>
+      <c r="G63" t="n" s="0">
+        <v>197.34</v>
+      </c>
+      <c r="H63" t="n" s="0">
+        <v>1055.34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="F64" t="s" s="0">
-        <v>9</v>
+        <v>148</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="G64" t="n" s="0">
+        <v>180.32</v>
+      </c>
+      <c r="H64" t="n" s="0">
+        <v>964.3199999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="F65" t="s" s="0">
-        <v>196</v>
+        <v>150</v>
+      </c>
+      <c r="F65" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="G65" t="n" s="0">
+        <v>80.5</v>
+      </c>
+      <c r="H65" t="n" s="0">
+        <v>430.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="F66" t="s" s="0">
-        <v>199</v>
+        <v>152</v>
+      </c>
+      <c r="F66" t="n" s="0">
+        <v>3060.0</v>
+      </c>
+      <c r="G66" t="n" s="0">
+        <v>703.8</v>
+      </c>
+      <c r="H66" t="n" s="0">
+        <v>3763.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>201</v>
-      </c>
-      <c r="F67" t="s" s="0">
-        <v>202</v>
+        <v>154</v>
+      </c>
+      <c r="F67" t="n" s="0">
+        <v>1680.0</v>
+      </c>
+      <c r="G67" t="n" s="0">
+        <v>386.4</v>
+      </c>
+      <c r="H67" t="n" s="0">
+        <v>2066.4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="F68" t="s" s="0">
-        <v>205</v>
+        <v>156</v>
+      </c>
+      <c r="F68" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="G68" t="n" s="0">
+        <v>138.0</v>
+      </c>
+      <c r="H68" t="n" s="0">
+        <v>738.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>207</v>
-      </c>
-      <c r="F69" t="s" s="0">
-        <v>208</v>
+        <v>158</v>
+      </c>
+      <c r="F69" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="G69" t="n" s="0">
+        <v>66.24</v>
+      </c>
+      <c r="H69" t="n" s="0">
+        <v>354.24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>210</v>
-      </c>
-      <c r="F70" t="s" s="0">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="F70" t="n" s="0">
+        <v>96.0</v>
+      </c>
+      <c r="G70" t="n" s="0">
+        <v>22.08</v>
+      </c>
+      <c r="H70" t="n" s="0">
+        <v>118.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>212</v>
-      </c>
-      <c r="F71" t="s" s="0">
-        <v>213</v>
+        <v>162</v>
+      </c>
+      <c r="F71" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="G71" t="n" s="0">
+        <v>80.5</v>
+      </c>
+      <c r="H71" t="n" s="0">
+        <v>430.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>215</v>
-      </c>
-      <c r="F72" t="s" s="0">
-        <v>216</v>
+        <v>164</v>
+      </c>
+      <c r="F72" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="G72" t="n" s="0">
+        <v>57.5</v>
+      </c>
+      <c r="H72" t="n" s="0">
+        <v>307.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="F73" t="s" s="0">
-        <v>213</v>
+        <v>166</v>
+      </c>
+      <c r="F73" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="G73" t="n" s="0">
+        <v>103.5</v>
+      </c>
+      <c r="H73" t="n" s="0">
+        <v>553.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="F74" t="s" s="0">
-        <v>58</v>
+        <v>168</v>
+      </c>
+      <c r="F74" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="G74" t="n" s="0">
+        <v>57.5</v>
+      </c>
+      <c r="H74" t="n" s="0">
+        <v>307.5</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>222</v>
-      </c>
-      <c r="F75" t="s" s="0">
-        <v>223</v>
+        <v>170</v>
+      </c>
+      <c r="F75" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="G75" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="H75" t="n" s="0">
+        <v>492.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>224</v>
+        <v>171</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="F76" t="s" s="0">
-        <v>226</v>
+        <v>172</v>
+      </c>
+      <c r="F76" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="G76" t="n" s="0">
+        <v>115.0</v>
+      </c>
+      <c r="H76" t="n" s="0">
+        <v>615.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>228</v>
-      </c>
-      <c r="F77" t="s" s="0">
-        <v>229</v>
+        <v>174</v>
+      </c>
+      <c r="F77" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="G77" t="n" s="0">
+        <v>18.4</v>
+      </c>
+      <c r="H77" t="n" s="0">
+        <v>98.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="F78" t="s" s="0">
-        <v>232</v>
+        <v>176</v>
+      </c>
+      <c r="F78" t="n" s="0">
+        <v>262.5</v>
+      </c>
+      <c r="G78" t="n" s="0">
+        <v>60.375</v>
+      </c>
+      <c r="H78" t="n" s="0">
+        <v>322.875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="F79" t="s" s="0">
-        <v>235</v>
+        <v>178</v>
+      </c>
+      <c r="F79" t="n" s="0">
+        <v>1506.0</v>
+      </c>
+      <c r="G79" t="n" s="0">
+        <v>346.38</v>
+      </c>
+      <c r="H79" t="n" s="0">
+        <v>1852.38</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>237</v>
-      </c>
-      <c r="F80" t="s" s="0">
-        <v>238</v>
+        <v>180</v>
+      </c>
+      <c r="F80" t="n" s="0">
+        <v>4000.0</v>
+      </c>
+      <c r="G80" t="n" s="0">
+        <v>920.0</v>
+      </c>
+      <c r="H80" t="n" s="0">
+        <v>4920.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="F81" t="s" s="0">
-        <v>241</v>
+        <v>182</v>
+      </c>
+      <c r="F81" t="n" s="0">
+        <v>1170.0</v>
+      </c>
+      <c r="G81" t="n" s="0">
+        <v>269.1</v>
+      </c>
+      <c r="H81" t="n" s="0">
+        <v>1439.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="F82" t="s" s="0">
-        <v>93</v>
+        <v>184</v>
+      </c>
+      <c r="F82" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="G82" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="H82" t="n" s="0">
+        <v>166.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="F83" t="s" s="0">
-        <v>246</v>
+        <v>186</v>
+      </c>
+      <c r="F83" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="G83" t="n" s="0">
+        <v>22.54</v>
+      </c>
+      <c r="H83" t="n" s="0">
+        <v>120.53999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>247</v>
+        <v>187</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>249</v>
-      </c>
-      <c r="F84" t="s" s="0">
-        <v>100</v>
+        <v>188</v>
+      </c>
+      <c r="F84" t="n" s="0">
+        <v>209.25</v>
+      </c>
+      <c r="G84" t="n" s="0">
+        <v>46.035</v>
+      </c>
+      <c r="H84" t="n" s="0">
+        <v>255.285</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="F85" t="s" s="0">
-        <v>252</v>
+        <v>191</v>
+      </c>
+      <c r="F85" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="G85" t="n" s="0">
+        <v>53.82</v>
+      </c>
+      <c r="H85" t="n" s="0">
+        <v>287.82</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="F86" t="s" s="0">
-        <v>256</v>
+        <v>193</v>
+      </c>
+      <c r="F86" t="n" s="0">
+        <v>1324.8</v>
+      </c>
+      <c r="G86" t="n" s="0">
+        <v>304.704</v>
+      </c>
+      <c r="H86" t="n" s="0">
+        <v>1629.504</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s" s="0">
-        <v>258</v>
-      </c>
-      <c r="F87" t="s" s="0">
-        <v>259</v>
+        <v>196</v>
+      </c>
+      <c r="F87" t="n" s="0">
+        <v>3545.0</v>
+      </c>
+      <c r="G87" t="n" s="0">
+        <v>815.35</v>
+      </c>
+      <c r="H87" t="n" s="0">
+        <v>4360.35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>261</v>
-      </c>
-      <c r="F88" t="s" s="0">
-        <v>262</v>
+        <v>198</v>
+      </c>
+      <c r="F88" t="n" s="0">
+        <v>3841.25</v>
+      </c>
+      <c r="G88" t="n" s="0">
+        <v>883.4875</v>
+      </c>
+      <c r="H88" t="n" s="0">
+        <v>4724.7375</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="F89" t="s" s="0">
-        <v>265</v>
+        <v>200</v>
+      </c>
+      <c r="F89" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="G89" t="n" s="0">
+        <v>46.23</v>
+      </c>
+      <c r="H89" t="n" s="0">
+        <v>247.23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>267</v>
-      </c>
-      <c r="F90" t="s" s="0">
-        <v>268</v>
+        <v>202</v>
+      </c>
+      <c r="F90" t="n" s="0">
+        <v>1520.0</v>
+      </c>
+      <c r="G90" t="n" s="0">
+        <v>349.6</v>
+      </c>
+      <c r="H90" t="n" s="0">
+        <v>1869.6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>270</v>
-      </c>
-      <c r="F91" t="s" s="0">
-        <v>241</v>
+        <v>204</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="G91" t="n" s="0">
+        <v>58.65</v>
+      </c>
+      <c r="H91" t="n" s="0">
+        <v>313.65</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>272</v>
-      </c>
-      <c r="F92" t="s" s="0">
-        <v>84</v>
+        <v>206</v>
+      </c>
+      <c r="F92" t="n" s="0">
+        <v>135.0</v>
+      </c>
+      <c r="G92" t="n" s="0">
+        <v>31.05</v>
+      </c>
+      <c r="H92" t="n" s="0">
+        <v>166.05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s" s="0">
-        <v>274</v>
-      </c>
-      <c r="F93" t="s" s="0">
-        <v>275</v>
+        <v>208</v>
+      </c>
+      <c r="F93" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="G93" t="n" s="0">
+        <v>55.2</v>
+      </c>
+      <c r="H93" t="n" s="0">
+        <v>295.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s" s="0">
-        <v>277</v>
-      </c>
-      <c r="F94" t="s" s="0">
-        <v>278</v>
+        <v>210</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>112.5</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>25.875</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>138.375</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s" s="0">
-        <v>280</v>
-      </c>
-      <c r="F95" t="s" s="0">
-        <v>16</v>
+        <v>212</v>
+      </c>
+      <c r="F95" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="G95" t="n" s="0">
+        <v>19.32</v>
+      </c>
+      <c r="H95" t="n" s="0">
+        <v>103.32</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s" s="0">
-        <v>282</v>
-      </c>
-      <c r="F96" t="s" s="0">
-        <v>19</v>
+        <v>214</v>
+      </c>
+      <c r="F96" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="G96" t="n" s="0">
+        <v>86.94</v>
+      </c>
+      <c r="H96" t="n" s="0">
+        <v>464.94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>283</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s" s="0">
-        <v>284</v>
-      </c>
-      <c r="F97" t="s" s="0">
-        <v>22</v>
+        <v>216</v>
+      </c>
+      <c r="F97" t="n" s="0">
+        <v>896.0</v>
+      </c>
+      <c r="G97" t="n" s="0">
+        <v>206.08</v>
+      </c>
+      <c r="H97" t="n" s="0">
+        <v>1102.08</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s" s="0">
-        <v>286</v>
-      </c>
-      <c r="F98" t="s" s="0">
-        <v>25</v>
+        <v>218</v>
+      </c>
+      <c r="F98" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="G98" t="n" s="0">
+        <v>191.59</v>
+      </c>
+      <c r="H98" t="n" s="0">
+        <v>1024.59</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>287</v>
+        <v>219</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s" s="0">
-        <v>288</v>
-      </c>
-      <c r="F99" t="s" s="0">
-        <v>28</v>
+        <v>220</v>
+      </c>
+      <c r="F99" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="G99" t="n" s="0">
+        <v>103.04</v>
+      </c>
+      <c r="H99" t="n" s="0">
+        <v>551.04</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s" s="0">
-        <v>290</v>
-      </c>
-      <c r="F100" t="s" s="0">
-        <v>31</v>
+        <v>222</v>
+      </c>
+      <c r="F100" t="n" s="0">
+        <v>560.0</v>
+      </c>
+      <c r="G100" t="n" s="0">
+        <v>128.8</v>
+      </c>
+      <c r="H100" t="n" s="0">
+        <v>688.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>291</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s" s="0">
-        <v>292</v>
-      </c>
-      <c r="F101" t="s" s="0">
-        <v>34</v>
+        <v>224</v>
+      </c>
+      <c r="F101" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="G101" t="n" s="0">
+        <v>96.6</v>
+      </c>
+      <c r="H101" t="n" s="0">
+        <v>516.6</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>293</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s" s="0">
-        <v>294</v>
-      </c>
-      <c r="F102" t="s" s="0">
-        <v>295</v>
+        <v>226</v>
+      </c>
+      <c r="F102" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="G102" t="n" s="0">
+        <v>90.16</v>
+      </c>
+      <c r="H102" t="n" s="0">
+        <v>482.15999999999997</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s" s="0">
-        <v>297</v>
-      </c>
-      <c r="F103" t="s" s="0">
-        <v>298</v>
+        <v>228</v>
+      </c>
+      <c r="F103" t="n" s="0">
+        <v>11177.63</v>
+      </c>
+      <c r="G103" t="n" s="0">
+        <v>2570.8549</v>
+      </c>
+      <c r="H103" t="n" s="0">
+        <v>13748.4849</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s" s="0">
-        <v>300</v>
-      </c>
-      <c r="F104" t="s" s="0">
-        <v>301</v>
+        <v>230</v>
+      </c>
+      <c r="F104" t="n" s="0">
+        <v>10136.74</v>
+      </c>
+      <c r="G104" t="n" s="0">
+        <v>2331.4502</v>
+      </c>
+      <c r="H104" t="n" s="0">
+        <v>12468.190200000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s" s="0">
-        <v>303</v>
-      </c>
-      <c r="F105" t="s" s="0">
-        <v>304</v>
+        <v>232</v>
+      </c>
+      <c r="F105" t="n" s="0">
+        <v>1607.0</v>
+      </c>
+      <c r="G105" t="n" s="0">
+        <v>369.61</v>
+      </c>
+      <c r="H105" t="n" s="0">
+        <v>1976.6100000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s" s="0">
-        <v>306</v>
-      </c>
-      <c r="F106" t="s" s="0">
-        <v>93</v>
+        <v>234</v>
+      </c>
+      <c r="F106" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="G106" t="n" s="0">
+        <v>57.96</v>
+      </c>
+      <c r="H106" t="n" s="0">
+        <v>309.96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s" s="0">
-        <v>308</v>
-      </c>
-      <c r="F107" t="s" s="0">
-        <v>309</v>
+        <v>236</v>
+      </c>
+      <c r="F107" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="G107" t="n" s="0">
+        <v>22.54</v>
+      </c>
+      <c r="H107" t="n" s="0">
+        <v>120.53999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s" s="0">
-        <v>311</v>
-      </c>
-      <c r="F108" t="s" s="0">
-        <v>113</v>
+        <v>238</v>
+      </c>
+      <c r="F108" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="G108" t="n" s="0">
+        <v>17.25</v>
+      </c>
+      <c r="H108" t="n" s="0">
+        <v>92.25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s" s="0">
-        <v>313</v>
-      </c>
-      <c r="F109" t="s" s="0">
-        <v>314</v>
+        <v>240</v>
+      </c>
+      <c r="F109" t="n" s="0">
+        <v>117.0</v>
+      </c>
+      <c r="G109" t="n" s="0">
+        <v>26.91</v>
+      </c>
+      <c r="H109" t="n" s="0">
+        <v>143.91</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s" s="0">
-        <v>316</v>
-      </c>
-      <c r="F110" t="s" s="0">
-        <v>93</v>
+        <v>242</v>
+      </c>
+      <c r="F110" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="G110" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="H110" t="n" s="0">
+        <v>154.98</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>317</v>
+        <v>243</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s" s="0">
-        <v>318</v>
-      </c>
-      <c r="F111" t="s" s="0">
-        <v>319</v>
+        <v>244</v>
+      </c>
+      <c r="F111" t="n" s="0">
+        <v>98.0</v>
+      </c>
+      <c r="G111" t="n" s="0">
+        <v>22.54</v>
+      </c>
+      <c r="H111" t="n" s="0">
+        <v>120.53999999999999</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>320</v>
+        <v>245</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s" s="0">
-        <v>321</v>
-      </c>
-      <c r="F112" t="s" s="0">
-        <v>19</v>
+        <v>246</v>
+      </c>
+      <c r="F112" t="n" s="0">
+        <v>87.0</v>
+      </c>
+      <c r="G112" t="n" s="0">
+        <v>20.01</v>
+      </c>
+      <c r="H112" t="n" s="0">
+        <v>107.01</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s" s="0">
-        <v>323</v>
-      </c>
-      <c r="F113" t="s" s="0">
-        <v>84</v>
+        <v>248</v>
+      </c>
+      <c r="F113" t="n" s="0">
+        <v>896.0</v>
+      </c>
+      <c r="G113" t="n" s="0">
+        <v>206.08</v>
+      </c>
+      <c r="H113" t="n" s="0">
+        <v>1102.08</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>324</v>
+        <v>249</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s" s="0">
-        <v>325</v>
-      </c>
-      <c r="F114" t="s" s="0">
-        <v>309</v>
+        <v>250</v>
+      </c>
+      <c r="F114" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="G114" t="n" s="0">
+        <v>55.2</v>
+      </c>
+      <c r="H114" t="n" s="0">
+        <v>295.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s" s="0">
-        <v>327</v>
-      </c>
-      <c r="F115" t="s" s="0">
-        <v>278</v>
+        <v>252</v>
+      </c>
+      <c r="F115" t="n" s="0">
+        <v>75.0</v>
+      </c>
+      <c r="G115" t="n" s="0">
+        <v>17.25</v>
+      </c>
+      <c r="H115" t="n" s="0">
+        <v>92.25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s" s="0">
-        <v>329</v>
-      </c>
-      <c r="F116" t="s" s="0">
-        <v>314</v>
+        <v>254</v>
+      </c>
+      <c r="F116" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="G116" t="n" s="0">
+        <v>19.32</v>
+      </c>
+      <c r="H116" t="n" s="0">
+        <v>103.32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s" s="0">
-        <v>331</v>
-      </c>
-      <c r="F117" t="s" s="0">
-        <v>332</v>
+        <v>256</v>
+      </c>
+      <c r="F117" t="n" s="0">
+        <v>126.0</v>
+      </c>
+      <c r="G117" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="H117" t="n" s="0">
+        <v>154.98</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s" s="0">
-        <v>334</v>
-      </c>
-      <c r="F118" t="s" s="0">
-        <v>335</v>
+        <v>258</v>
+      </c>
+      <c r="F118" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="G118" t="n" s="0">
+        <v>13.8</v>
+      </c>
+      <c r="H118" t="n" s="0">
+        <v>73.8</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>336</v>
+        <v>259</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s" s="0">
-        <v>337</v>
-      </c>
-      <c r="F119" t="s" s="0">
-        <v>338</v>
+        <v>260</v>
+      </c>
+      <c r="F119" t="n" s="0">
+        <v>719.0</v>
+      </c>
+      <c r="G119" t="n" s="0">
+        <v>165.37</v>
+      </c>
+      <c r="H119" t="n" s="0">
+        <v>884.37</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s" s="0">
-        <v>340</v>
-      </c>
-      <c r="F120" t="s" s="0">
-        <v>341</v>
+        <v>262</v>
+      </c>
+      <c r="F120" t="n" s="0">
+        <v>3376.0</v>
+      </c>
+      <c r="G120" t="n" s="0">
+        <v>776.48</v>
+      </c>
+      <c r="H120" t="n" s="0">
+        <v>4152.48</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s" s="0">
-        <v>343</v>
-      </c>
-      <c r="F121" t="s" s="0">
-        <v>344</v>
+        <v>264</v>
+      </c>
+      <c r="F121" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="G121" t="n" s="0">
+        <v>72.22</v>
+      </c>
+      <c r="H121" t="n" s="0">
+        <v>386.22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>345</v>
+        <v>265</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s" s="0">
-        <v>346</v>
-      </c>
-      <c r="F122" t="s" s="0">
-        <v>347</v>
+        <v>266</v>
+      </c>
+      <c r="F122" t="n" s="0">
+        <v>785.0</v>
+      </c>
+      <c r="G122" t="n" s="0">
+        <v>180.55</v>
+      </c>
+      <c r="H122" t="n" s="0">
+        <v>965.55</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s" s="0">
-        <v>350</v>
-      </c>
-      <c r="F123" t="s" s="0">
-        <v>351</v>
+        <v>268</v>
+      </c>
+      <c r="F123" t="n" s="0">
+        <v>534.0</v>
+      </c>
+      <c r="G123" t="n" s="0">
+        <v>122.82</v>
+      </c>
+      <c r="H123" t="n" s="0">
+        <v>656.8199999999999</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E124" t="s" s="0">
-        <v>353</v>
-      </c>
-      <c r="F124" t="s" s="0">
-        <v>58</v>
+        <v>271</v>
+      </c>
+      <c r="F124" t="n" s="0">
+        <v>710.0</v>
+      </c>
+      <c r="G124" t="n" s="0">
+        <v>163.3</v>
+      </c>
+      <c r="H124" t="n" s="0">
+        <v>873.3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>354</v>
+        <v>272</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E125" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="F125" t="s" s="0">
-        <v>58</v>
+        <v>273</v>
+      </c>
+      <c r="F125" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="G125" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="H125" t="n" s="0">
+        <v>492.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s" s="0">
-        <v>357</v>
-      </c>
-      <c r="F126" t="s" s="0">
-        <v>172</v>
+        <v>275</v>
+      </c>
+      <c r="F126" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="G126" t="n" s="0">
+        <v>92.0</v>
+      </c>
+      <c r="H126" t="n" s="0">
+        <v>492.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>358</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E127" t="s" s="0">
-        <v>359</v>
-      </c>
-      <c r="F127" t="s" s="0">
-        <v>172</v>
+        <v>277</v>
+      </c>
+      <c r="F127" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="G127" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="H127" t="n" s="0">
+        <v>366.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="F128" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="G128" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="H128" t="n" s="0">
+        <v>366.0</v>
       </c>
     </row>
   </sheetData>
